--- a/Sandbox/recLPdata.xlsx
+++ b/Sandbox/recLPdata.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
   <si>
     <t xml:space="preserve">Shot# 167192 plunge# 1</t>
   </si>
@@ -83,6 +83,12 @@
   <si>
     <t xml:space="preserve">R-Rsep (cm)</t>
   </si>
+  <si>
+    <t xml:space="preserve">ne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R-Rsep(cm)</t>
+  </si>
 </sst>
 </file>
 
@@ -92,13 +98,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,13 +125,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,8 +184,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +212,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF7E0021"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
@@ -215,22 +240,22 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FF83CAFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF579D1C"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF314004"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -240,7 +265,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -697,8 +722,8 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25848587"/>
-        <c:axId val="90201561"/>
+        <c:axId val="59951020"/>
+        <c:axId val="27778818"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1117,45 +1142,45 @@
                   <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v/>
+                  <c:v>6.34905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4396201"/>
-        <c:axId val="33655701"/>
+        <c:axId val="28800785"/>
+        <c:axId val="12748764"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25848587"/>
+        <c:axId val="59951020"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,12 +1215,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90201561"/>
+        <c:crossAx val="27778818"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90201561"/>
+        <c:axId val="27778818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,12 +1264,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25848587"/>
+        <c:crossAx val="59951020"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4396201"/>
+        <c:axId val="28800785"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,12 +1304,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33655701"/>
+        <c:crossAx val="12748764"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33655701"/>
+        <c:axId val="12748764"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1344,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4396201"/>
+        <c:crossAx val="28800785"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1342,6 +1367,4639 @@
         </a:ln>
       </c:spPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>16.074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.883</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.651</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.715</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.482</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.78799999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.33399999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.10899999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.886</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.23399999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.416</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.22299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.85999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.68199999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.51299999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.202</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.054</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.78799999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.566</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.35799999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.21299999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.11999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.09599999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.08599999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0.254558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.463889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.295443</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.267511</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.216136</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.202622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.201307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.255058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.218056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.214605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.346052</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.454222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.311882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.303866</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.225503</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.335254</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.620091</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.03937</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.801702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.39348</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.34741</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.54362</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.53383</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.88002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.85443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.74745</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.85693</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.65381</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2395</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.11315</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.53918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.96695</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.23326</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.81811</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.34289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.40531</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.49141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.71485</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.12493</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.28776</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.46526</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.67226</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4194</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.89449</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.79023</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.88928</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.22481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0203</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.34905</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="2251086"/>
+        <c:axId val="3750931"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2251086"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3750931"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="3750931"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2251086"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$BE$1:$BE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167195 plunge# 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="aecf00"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="aecf00"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BK$3:$BK$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>15.923</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.221</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.522</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.129</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.917</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.484</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.791</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.552</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.052</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.539</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.747</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.475</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.929</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.65100000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.374</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.096</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.81200000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.52699999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.245</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.96299999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.68000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.398</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.114</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.83500000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.55600000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.27699999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.00399999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.732</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.46799999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.20400000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.941</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.685</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.43600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.71899999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.501</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.12200000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.88300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$BH$3:$BH$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="57"/>
+                <c:pt idx="0">
+                  <c:v>3.25242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.17433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.18758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.41224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.20105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.12962</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.37694</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.06256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.08131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.34665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.27538</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.12326</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.11274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.37878</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.12676</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.91915</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.52225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.36172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3484</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.74889</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.39159</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.04136</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.97441</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.43422</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.77495</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.6881</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.73246</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.90252</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.32405</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.20244</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.83533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.74822</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.94934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.18139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.11832</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.5747</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.92683</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.35466</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0882</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.768</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.5646</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14.0521</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14.1034</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.2631</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.6215</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20.7269</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21.8176</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>22.9706</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>26.7686</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29.3145</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.0855</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42.1849</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>49.876</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>58.261</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167192 plunge# 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>16.074</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.533</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.155</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.958</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.549</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.343</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.131</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.914</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.253</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.806</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.576</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.883</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.651</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.183</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.715</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.482</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.249</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.018</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.78799999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.33399999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.10899999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.886</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.23399999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.023</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.416</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.22299999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.03699999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.85999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.68199999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.51299999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.202</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.054</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.78799999999998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.566</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.44499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.35799999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.21299999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.161</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.11999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.09599999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.08599999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2.81245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.88682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.98964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.89349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.59157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.01521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.88849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.83414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.67155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.50399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.44273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.64859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.06863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.12407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.19151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.14056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.22298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.39655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.45902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.90697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.70033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9686</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.43781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.28147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.09848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.36698</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.17762</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.77198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.53047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.64708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.75816</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.28178</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.49646</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.40622</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.31276</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.67364</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.25983</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7879</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.22136</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.19659</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.37497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.49291</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.47171</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.65942</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.07606</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.87165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.0488</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.9966</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.3092</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.4721</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.0577</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.716</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.3134</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.166</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.3731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1:$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167192 plunge# 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>16.058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.683</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.644</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.728</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.248</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.756</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.732</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.473</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.211</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.945</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.679</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.87799999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.61099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.08099999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.81799999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.55500000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.036</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.786</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.53399999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.28700000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.047</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.81299999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.916</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.71000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.511</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.31999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.14499999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.994</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.864</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.762</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.697</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.66399999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.649</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>2.76799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.97841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.27313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.95967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.76317</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.88277</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.02918</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.89746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.86957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.69833</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.73376</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.83255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.58271</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.75295</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.61476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.46655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.20666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.41208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.35573</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.53463</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.87148</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.02315</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.34728</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.34637</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.70189</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.83776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.74459</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.00161</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.03949</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.82624</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.55119</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.13022</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.01092</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.8098</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.71215</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6643</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.71057</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.58119</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.41194</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.68605</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.1393</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.94506</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.4862</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.58696</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.9566</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.3975</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.3277</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.5777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.2074</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.0545</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.9445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.9005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167193 plunge# 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>16.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.766</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.214</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.823</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.196</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.979</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.753</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.527</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.294</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.059</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.825</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.106</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.865</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.619</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.369</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.119</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.86499999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.61399999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.369</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.118</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.86999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.38399999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.13899999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.899</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.66299999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.43199999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.20099999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.97499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.756</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.53999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.32799999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.91999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.726</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.35799999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.18899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.02799999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.88199999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.74799999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.63299999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.54299999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.43699999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.417</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.40799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>2.89114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.85305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.06234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.83246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.23863</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.86977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.97313</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.00194</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.88269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.01601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.66156</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.64377</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.16471</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.05416</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.12015</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.25748</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.20934</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.45289</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.52836</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.54641</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.40493</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.70187</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.60868</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.43597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.91116</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.31208</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.73186</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4292</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.19967</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.279</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.42208</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.25654</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.15786</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.69582</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.52794</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.8527</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.55709</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.07221</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.83464</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.19597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.5573</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.2003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.80975</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.2833</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.9741</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>12.9863</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.3566</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12.9706</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.7448</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.903</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.388</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.2405</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.0933</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.9987</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.5105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1:$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167193 plunge# 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AE$3:$AE$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>16.124</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.577</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.971</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.543</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.093</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.863</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.622</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.877</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.363</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.838</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.296</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.024</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.746</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.467</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.187</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.904</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.62199999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.34299999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.77799999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.49699999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.22099999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.66499999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.39599999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.86499999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.607</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.35199999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.10299999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.85899999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.619</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.387</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.166</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.95299999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>3.03479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.81114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.01737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.65466</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.86424</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.82863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.92557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.79131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.94373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.96395</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9303</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.86567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.58544</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.68238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.54845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.64546</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.37601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.22501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.50962</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.53856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.85229</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.78787</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.26712</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.48186</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.89767</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.93712</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.26906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.63831</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.97665</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.54246</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.89693</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.14899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.40457</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.1227</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.3362</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.15183</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.80234</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.20839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.65121</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.2914</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.4027</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.16347</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.7959</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.2841</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.0784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$1:$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167194 plunge# 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7e0021"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AM$3:$AM$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>15.775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.383</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.159</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.037</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.912</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.781</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.635</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.487</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.336</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.174</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.824</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.642</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.451</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.254</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.057</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.632</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.419</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.973</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.508</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.266</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.777</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.534</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.282</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.03</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.77800000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.26000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.74000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.476</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.215</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.952</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.68700000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.42600000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.16600000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.90700000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.64700000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.38900000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6.13500000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.631</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.38500000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.14000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.90400000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.67100000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.43900000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.21100000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.99300000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.77700000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.566</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.36600000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.18600000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.989</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.82600000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.68300000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.565</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.47500000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.39000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.38000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AJ$3:$AJ$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.1667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.95518</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.06744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.29847</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.01785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.03148</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.30335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.04078</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.16019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.03523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.19722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.14709</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.10559</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.24766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.17379</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.07746</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.21531</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.43987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.06095</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.12607</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.91395</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.03562</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.08153</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.06326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.98324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.92305</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.87363</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.09247</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.32832</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3459</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.38231</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.97668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.00474</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.12537</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.29801</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.80989</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1093</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.79952</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.58461</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.89829</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.56443</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.92998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.05335</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.95022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.53756</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.84352</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.66343</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.4506</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.1355</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.7597</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.8316</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.6118</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.91216</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.9528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15.1897</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.1224</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.6272</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>20.9527</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19.6454</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.922</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.5942</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.9702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26.7664</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.4898</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.8041</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.2022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.8026</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>26.3957</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.0242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AO$1:$AO$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167194 plunge# 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="83caff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$AU$3:$AU$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>15.779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.402</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.931</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.514</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.358</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.853</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.073</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.862</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.643</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.423</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.197</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.968</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.733</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.493</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.247</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.744</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.231</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.96800000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.44500000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.17400000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.90600000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.63800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.364</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.08700000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.81300000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.53900000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.26500000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.99000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.71700000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.17000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.90200000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.631</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.364</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.102</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.84400000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.58500000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.33200000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.083</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.59700000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.36200000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.13300000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.91500000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.70700000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.51600000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.18700000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.08500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AR$3:$AR$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>3.2288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2032</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.18425</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.27389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.21216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.06701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.30492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.22577</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.11393</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.32902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.14725</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.11941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.20211</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.18401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.21283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.32307</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.03987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.32972</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3896</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.87227</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.71156</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.12472</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.22972</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.7284</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.35436</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.55608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.09707</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.59954</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.25827</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.47499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.94568</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.37534</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.43367</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.47183</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.03141</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.09319</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.03078</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.40372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.91023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.44804</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.07419</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7.29025</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.08809</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.39408</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.39264</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.8153</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.6478</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11.5819</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2565</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.3158</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.8479</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.9175</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20.1108</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.496</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17.8021</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.4483</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5594</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.4657</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.1233</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41.6599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27.9844</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.0134</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>47.1249</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>58.2573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AW$1:$AW$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shot# 167195 plunge# 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="314004"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$BC$3:$BC$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>15.821</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.589</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.185</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.035</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.715</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.543</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.173</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.779</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.571</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.359</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.143</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.696</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.465</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.226</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.739</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.487</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.233</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.981</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.724</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.463</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.66900000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.85400000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.58100000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.30600000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.03399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.762</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.49100000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.21899999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.94800000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.68100000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.416</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.15200000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.893</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.636</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.38500000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.14000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.89400000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.65600000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.422</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.19499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.75900000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.55700000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.36799999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.197</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$AZ$3:$AZ$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="58"/>
+                <c:pt idx="0">
+                  <c:v>3.32816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.13336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.21183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.07148</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.07838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.05932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.25863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.16147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.20132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.19083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.00407</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.12177</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.23012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.34415</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.56864</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.99252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.26089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.17409</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.94174</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3123</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.37145</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.00258</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.27192</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.82765</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.81962</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.10378</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.58648</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.08567</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.81038</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.41548</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.41056</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.43891</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.13991</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.207815</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.27572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.87629</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.98865</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.74844</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.1837</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.80352</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11.4886</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.0423</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.1981</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.2378</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.5325</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.0107</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.7769</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.2358</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.858</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.7635</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>17.6138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22.9874</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.0094</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.924</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>20.8477</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21.3912</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>25.0192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="80213806"/>
+        <c:axId val="71284928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80213806"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="71284928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71284928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80213806"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>167192 #1 Te</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="62"/>
+                <c:pt idx="0">
+                  <c:v>2.81245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.88682</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.99746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.98964</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.04286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.89349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.59157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.01521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.88849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.83414</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.67155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.50399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.44273</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.64859</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3631</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.06863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.12407</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.19151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.14056</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.22298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.39655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.45902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.90697</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.70033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9686</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.43781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.28147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.09848</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.36698</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.17762</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.77198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.53047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.64708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.75816</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.28178</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.49646</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.40622</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.31276</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.67364</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.25983</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7879</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.4755</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7.22136</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.19659</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.32</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.37497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>11.68</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.49291</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.47171</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.65942</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.07606</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.87165</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.0488</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.9966</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.3092</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.4721</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12.0577</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>12.716</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>12.3134</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12.166</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>13.3731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="78292067"/>
+        <c:axId val="39654654"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="78292067"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Rho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39654654"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="39654654"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Te (ev)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78292067"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
   </c:chart>
@@ -1388,6 +6046,96 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>583920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8965800" y="1486080"/>
+        <a:ext cx="5759640" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28080</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>715680</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="789840" y="5553360"/>
+        <a:ext cx="7545600" cy="4076640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>27720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>74160</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9171720" y="5667480"/>
+        <a:ext cx="6904440" cy="3791160"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1398,11 +6146,11 @@
   </sheetPr>
   <dimension ref="A1:BK71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1862348178138"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.41295546558704"/>
@@ -1423,7 +6171,7 @@
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +6221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
@@ -1643,7 +6391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1939</v>
       </c>
@@ -1829,7 +6577,7 @@
         <v>15.923</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1940</v>
       </c>
@@ -2015,7 +6763,7 @@
         <v>15.797</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1941</v>
       </c>
@@ -2201,7 +6949,7 @@
         <v>15.665</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>1942</v>
       </c>
@@ -2242,7 +6990,7 @@
       </c>
       <c r="N6" s="0" t="n">
         <f aca="false">M6+3*L6</f>
-        <v>9.678634</v>
+        <v>1.003708</v>
       </c>
       <c r="O6" s="0" t="n">
         <f aca="false">J6-221.4</f>
@@ -2387,7 +7135,7 @@
         <v>15.526</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1943</v>
       </c>
@@ -2428,7 +7176,7 @@
       </c>
       <c r="N7" s="0" t="n">
         <f aca="false">M7+3*L7</f>
-        <v>9.35943</v>
+        <v>1.021161</v>
       </c>
       <c r="O7" s="0" t="n">
         <f aca="false">J7-221.4</f>
@@ -2573,7 +7321,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1944</v>
       </c>
@@ -2614,7 +7362,7 @@
       </c>
       <c r="N8" s="0" t="n">
         <f aca="false">M8+3*L8</f>
-        <v>8.752432</v>
+        <v>0.4148071</v>
       </c>
       <c r="O8" s="0" t="n">
         <f aca="false">J8-221.4</f>
@@ -2759,7 +7507,7 @@
         <v>15.221</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>1945</v>
       </c>
@@ -2800,7 +7548,7 @@
       </c>
       <c r="N9" s="0" t="n">
         <f aca="false">M9+3*L9</f>
-        <v>9.109945</v>
+        <v>1.036144</v>
       </c>
       <c r="O9" s="0" t="n">
         <f aca="false">J9-221.4</f>
@@ -2945,7 +7693,7 @@
         <v>15.059</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>1946</v>
       </c>
@@ -2986,7 +7734,7 @@
       </c>
       <c r="N10" s="0" t="n">
         <f aca="false">M10+3*L10</f>
-        <v>9.61113</v>
+        <v>0.919842</v>
       </c>
       <c r="O10" s="0" t="n">
         <f aca="false">J10-221.4</f>
@@ -3131,7 +7879,7 @@
         <v>14.891</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>1947</v>
       </c>
@@ -3172,7 +7920,7 @@
       </c>
       <c r="N11" s="0" t="n">
         <f aca="false">M11+3*L11</f>
-        <v>8.958067</v>
+        <v>0.97234</v>
       </c>
       <c r="O11" s="0" t="n">
         <f aca="false">J11-221.4</f>
@@ -3317,7 +8065,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>1948</v>
       </c>
@@ -3358,7 +8106,7 @@
       </c>
       <c r="N12" s="0" t="n">
         <f aca="false">M12+3*L12</f>
-        <v>8.458344</v>
+        <v>0.445404</v>
       </c>
       <c r="O12" s="0" t="n">
         <f aca="false">J12-221.4</f>
@@ -3503,7 +8251,7 @@
         <v>14.522</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>1949</v>
       </c>
@@ -3544,7 +8292,7 @@
       </c>
       <c r="N13" s="0" t="n">
         <f aca="false">M13+3*L13</f>
-        <v>7.549868</v>
+        <v>0.227558</v>
       </c>
       <c r="O13" s="0" t="n">
         <f aca="false">J13-221.4</f>
@@ -3689,7 +8437,7 @@
         <v>14.329</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>1950</v>
       </c>
@@ -3730,7 +8478,7 @@
       </c>
       <c r="N14" s="0" t="n">
         <f aca="false">M14+3*L14</f>
-        <v>7.623507</v>
+        <v>-0.2932689</v>
       </c>
       <c r="O14" s="0" t="n">
         <f aca="false">J14-221.4</f>
@@ -3875,7 +8623,7 @@
         <v>14.129</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>1951</v>
       </c>
@@ -3916,7 +8664,7 @@
       </c>
       <c r="N15" s="0" t="n">
         <f aca="false">M15+3*L15</f>
-        <v>8.04679</v>
+        <v>0.406438</v>
       </c>
       <c r="O15" s="0" t="n">
         <f aca="false">J15-221.4</f>
@@ -4061,7 +8809,7 @@
         <v>13.917</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>1952</v>
       </c>
@@ -4102,7 +8850,7 @@
       </c>
       <c r="N16" s="0" t="n">
         <f aca="false">M16+3*L16</f>
-        <v>7.493754</v>
+        <v>0.794469</v>
       </c>
       <c r="O16" s="0" t="n">
         <f aca="false">J16-221.4</f>
@@ -4247,7 +8995,7 @@
         <v>13.703</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>1953</v>
       </c>
@@ -4288,7 +9036,7 @@
       </c>
       <c r="N17" s="0" t="n">
         <f aca="false">M17+3*L17</f>
-        <v>8.035384</v>
+        <v>1.064149</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">J17-221.4</f>
@@ -4433,7 +9181,7 @@
         <v>13.484</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>1954</v>
       </c>
@@ -4474,7 +9222,7 @@
       </c>
       <c r="N18" s="0" t="n">
         <f aca="false">M18+3*L18</f>
-        <v>7.575318</v>
+        <v>0.716754</v>
       </c>
       <c r="O18" s="0" t="n">
         <f aca="false">J18-221.4</f>
@@ -4619,7 +9367,7 @@
         <v>13.256</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>1955</v>
       </c>
@@ -4660,7 +9408,7 @@
       </c>
       <c r="N19" s="0" t="n">
         <f aca="false">M19+3*L19</f>
-        <v>7.143437</v>
+        <v>0.39179</v>
       </c>
       <c r="O19" s="0" t="n">
         <f aca="false">J19-221.4</f>
@@ -4805,7 +9553,7 @@
         <v>13.024</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>1956</v>
       </c>
@@ -4846,7 +9594,7 @@
       </c>
       <c r="N20" s="0" t="n">
         <f aca="false">M20+3*L20</f>
-        <v>6.129299</v>
+        <v>0.357542</v>
       </c>
       <c r="O20" s="0" t="n">
         <f aca="false">J20-221.4</f>
@@ -4991,7 +9739,7 @@
         <v>12.791</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>1957</v>
       </c>
@@ -5032,7 +9780,7 @@
       </c>
       <c r="N21" s="0" t="n">
         <f aca="false">M21+3*L21</f>
-        <v>6.315263</v>
+        <v>0.119975</v>
       </c>
       <c r="O21" s="0" t="n">
         <f aca="false">J21-221.4</f>
@@ -5177,7 +9925,7 @@
         <v>12.552</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>1958</v>
       </c>
@@ -5218,7 +9966,7 @@
       </c>
       <c r="N22" s="0" t="n">
         <f aca="false">M22+3*L22</f>
-        <v>5.94296</v>
+        <v>0.0997129999999999</v>
       </c>
       <c r="O22" s="0" t="n">
         <f aca="false">J22-221.4</f>
@@ -5363,7 +10111,7 @@
         <v>12.302</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>1959</v>
       </c>
@@ -5404,7 +10152,7 @@
       </c>
       <c r="N23" s="0" t="n">
         <f aca="false">M23+3*L23</f>
-        <v>5.68285</v>
+        <v>-0.101429</v>
       </c>
       <c r="O23" s="0" t="n">
         <f aca="false">J23-221.4</f>
@@ -5549,7 +10297,7 @@
         <v>12.052</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>1960</v>
       </c>
@@ -5590,7 +10338,7 @@
       </c>
       <c r="N24" s="0" t="n">
         <f aca="false">M24+3*L24</f>
-        <v>7.891341</v>
+        <v>1.317381</v>
       </c>
       <c r="O24" s="0" t="n">
         <f aca="false">J24-221.4</f>
@@ -5735,7 +10483,7 @@
         <v>11.798</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>1961</v>
       </c>
@@ -5776,7 +10524,7 @@
       </c>
       <c r="N25" s="0" t="n">
         <f aca="false">M25+3*L25</f>
-        <v>8.485141</v>
+        <v>1.72633</v>
       </c>
       <c r="O25" s="0" t="n">
         <f aca="false">J25-221.4</f>
@@ -5921,7 +10669,7 @@
         <v>11.539</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>1962</v>
       </c>
@@ -5962,7 +10710,7 @@
       </c>
       <c r="N26" s="0" t="n">
         <f aca="false">M26+3*L26</f>
-        <v>9.200708</v>
+        <v>2.913998</v>
       </c>
       <c r="O26" s="0" t="n">
         <f aca="false">J26-221.4</f>
@@ -6107,7 +10855,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>1963</v>
       </c>
@@ -6148,7 +10896,7 @@
       </c>
       <c r="N27" s="0" t="n">
         <f aca="false">M27+3*L27</f>
-        <v>8.74194</v>
+        <v>3.57858</v>
       </c>
       <c r="O27" s="0" t="n">
         <f aca="false">J27-221.4</f>
@@ -6293,7 +11041,7 @@
         <v>11.017</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>1964</v>
       </c>
@@ -6334,7 +11082,7 @@
       </c>
       <c r="N28" s="0" t="n">
         <f aca="false">M28+3*L28</f>
-        <v>9.26514</v>
+        <v>3.74595</v>
       </c>
       <c r="O28" s="0" t="n">
         <f aca="false">J28-221.4</f>
@@ -6479,7 +11227,7 @@
         <v>10.747</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>1965</v>
       </c>
@@ -6520,7 +11268,7 @@
       </c>
       <c r="N29" s="0" t="n">
         <f aca="false">M29+3*L29</f>
-        <v>9.27607</v>
+        <v>3.96787</v>
       </c>
       <c r="O29" s="0" t="n">
         <f aca="false">J29-221.4</f>
@@ -6665,7 +11413,7 @@
         <v>10.475</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>1966</v>
       </c>
@@ -6706,7 +11454,7 @@
       </c>
       <c r="N30" s="0" t="n">
         <f aca="false">M30+3*L30</f>
-        <v>10.506723</v>
+        <v>6.693993</v>
       </c>
       <c r="O30" s="0" t="n">
         <f aca="false">J30-221.4</f>
@@ -6851,7 +11599,7 @@
         <v>10.204</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>1967</v>
       </c>
@@ -6892,7 +11640,7 @@
       </c>
       <c r="N31" s="0" t="n">
         <f aca="false">M31+3*L31</f>
-        <v>10.23721</v>
+        <v>5.533</v>
       </c>
       <c r="O31" s="0" t="n">
         <f aca="false">J31-221.4</f>
@@ -7037,7 +11785,7 @@
         <v>9.929</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>1968</v>
       </c>
@@ -7078,7 +11826,7 @@
       </c>
       <c r="N32" s="0" t="n">
         <f aca="false">M32+3*L32</f>
-        <v>11.128193</v>
+        <v>6.151763</v>
       </c>
       <c r="O32" s="0" t="n">
         <f aca="false">J32-221.4</f>
@@ -7223,7 +11971,7 @@
         <v>9.65100000000001</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>1969</v>
       </c>
@@ -7264,7 +12012,7 @@
       </c>
       <c r="N33" s="0" t="n">
         <f aca="false">M33+3*L33</f>
-        <v>10.722902</v>
+        <v>6.279062</v>
       </c>
       <c r="O33" s="0" t="n">
         <f aca="false">J33-221.4</f>
@@ -7409,7 +12157,7 @@
         <v>9.374</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1970</v>
       </c>
@@ -7450,7 +12198,7 @@
       </c>
       <c r="N34" s="0" t="n">
         <f aca="false">M34+3*L34</f>
-        <v>12.42943</v>
+        <v>5.38459</v>
       </c>
       <c r="O34" s="0" t="n">
         <f aca="false">J34-221.4</f>
@@ -7595,7 +12343,7 @@
         <v>9.096</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>1971</v>
       </c>
@@ -7636,7 +12384,7 @@
       </c>
       <c r="N35" s="0" t="n">
         <f aca="false">M35+3*L35</f>
-        <v>12.36882</v>
+        <v>5.34066</v>
       </c>
       <c r="O35" s="0" t="n">
         <f aca="false">J35-221.4</f>
@@ -7781,7 +12529,7 @@
         <v>8.81200000000001</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>1972</v>
       </c>
@@ -7822,7 +12570,7 @@
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">M36+3*L36</f>
-        <v>11.26233</v>
+        <v>5.70327</v>
       </c>
       <c r="O36" s="0" t="n">
         <f aca="false">J36-221.4</f>
@@ -7967,7 +12715,7 @@
         <v>8.52699999999999</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>1973</v>
       </c>
@@ -8008,7 +12756,7 @@
       </c>
       <c r="N37" s="0" t="n">
         <f aca="false">M37+3*L37</f>
-        <v>13.8746</v>
+        <v>6.57245</v>
       </c>
       <c r="O37" s="0" t="n">
         <f aca="false">J37-221.4</f>
@@ -8112,6 +12860,14 @@
       <c r="AX37" s="0" t="n">
         <v>230.181</v>
       </c>
+      <c r="AY37" s="1" t="n">
+        <f aca="false">AVERAGE(AY36,AY38)</f>
+        <v>1.658815</v>
+      </c>
+      <c r="AZ37" s="1" t="n">
+        <f aca="false">AVERAGE(AZ36,AZ38)</f>
+        <v>6.207815</v>
+      </c>
       <c r="BC37" s="0" t="n">
         <f aca="false">AX37-221.6</f>
         <v>8.58100000000002</v>
@@ -8140,7 +12896,7 @@
         <v>8.245</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>1974</v>
       </c>
@@ -8181,7 +12937,7 @@
       </c>
       <c r="N38" s="0" t="n">
         <f aca="false">M38+3*L38</f>
-        <v>11.519</v>
+        <v>5.29136</v>
       </c>
       <c r="O38" s="0" t="n">
         <f aca="false">J38-221.4</f>
@@ -8326,7 +13082,7 @@
         <v>7.96299999999999</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>1975</v>
       </c>
@@ -8367,7 +13123,7 @@
       </c>
       <c r="N39" s="0" t="n">
         <f aca="false">M39+3*L39</f>
-        <v>11.39558</v>
+        <v>4.49534</v>
       </c>
       <c r="O39" s="0" t="n">
         <f aca="false">J39-221.4</f>
@@ -8512,7 +13268,7 @@
         <v>7.68000000000001</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>1976</v>
       </c>
@@ -8553,7 +13309,7 @@
       </c>
       <c r="N40" s="0" t="n">
         <f aca="false">M40+3*L40</f>
-        <v>12.07409</v>
+        <v>4.56857</v>
       </c>
       <c r="O40" s="0" t="n">
         <f aca="false">J40-221.4</f>
@@ -8698,7 +13454,7 @@
         <v>7.398</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>1977</v>
       </c>
@@ -8739,7 +13495,7 @@
       </c>
       <c r="N41" s="0" t="n">
         <f aca="false">M41+3*L41</f>
-        <v>14.11584</v>
+        <v>5.20041</v>
       </c>
       <c r="O41" s="0" t="n">
         <f aca="false">J41-221.4</f>
@@ -8884,7 +13640,7 @@
         <v>7.114</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>1978</v>
       </c>
@@ -8925,7 +13681,7 @@
       </c>
       <c r="N42" s="0" t="n">
         <f aca="false">M42+3*L42</f>
-        <v>20.09627</v>
+        <v>6.72956</v>
       </c>
       <c r="O42" s="0" t="n">
         <f aca="false">J42-221.4</f>
@@ -9070,7 +13826,7 @@
         <v>6.83500000000001</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>1979</v>
       </c>
@@ -9111,7 +13867,7 @@
       </c>
       <c r="N43" s="0" t="n">
         <f aca="false">M43+3*L43</f>
-        <v>20.64445</v>
+        <v>11.49682</v>
       </c>
       <c r="O43" s="0" t="n">
         <f aca="false">J43-221.4</f>
@@ -9256,7 +14012,7 @@
         <v>6.55600000000001</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>1980</v>
       </c>
@@ -9297,7 +14053,7 @@
       </c>
       <c r="N44" s="0" t="n">
         <f aca="false">M44+3*L44</f>
-        <v>23.78631</v>
+        <v>14.06667</v>
       </c>
       <c r="O44" s="0" t="n">
         <f aca="false">J44-221.4</f>
@@ -9442,7 +14198,7 @@
         <v>6.27699999999999</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>1981</v>
       </c>
@@ -9483,7 +14239,7 @@
       </c>
       <c r="N45" s="0" t="n">
         <f aca="false">M45+3*L45</f>
-        <v>24.38799</v>
+        <v>16.95621</v>
       </c>
       <c r="O45" s="0" t="n">
         <f aca="false">J45-221.4</f>
@@ -9498,6 +14254,10 @@
       <c r="S45" s="0" t="n">
         <v>4.02556</v>
       </c>
+      <c r="T45" s="1" t="n">
+        <f aca="false">AVERAGE(T44,T46)</f>
+        <v>9.19597</v>
+      </c>
       <c r="U45" s="0" t="n">
         <v>-4.82439</v>
       </c>
@@ -9617,7 +14377,7 @@
         <v>6.00399999999999</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>1982</v>
       </c>
@@ -9658,7 +14418,7 @@
       </c>
       <c r="N46" s="0" t="n">
         <f aca="false">M46+3*L46</f>
-        <v>24.02929</v>
+        <v>11.8018</v>
       </c>
       <c r="O46" s="0" t="n">
         <f aca="false">J46-221.4</f>
@@ -9803,7 +14563,7 @@
         <v>5.732</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>1983</v>
       </c>
@@ -9844,7 +14604,7 @@
       </c>
       <c r="N47" s="0" t="n">
         <f aca="false">M47+3*L47</f>
-        <v>24.36632</v>
+        <v>15.06005</v>
       </c>
       <c r="O47" s="0" t="n">
         <f aca="false">J47-221.4</f>
@@ -9989,7 +14749,7 @@
         <v>5.46799999999999</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>1984</v>
       </c>
@@ -10030,7 +14790,7 @@
       </c>
       <c r="N48" s="0" t="n">
         <f aca="false">M48+3*L48</f>
-        <v>24.57535</v>
+        <v>10.74187</v>
       </c>
       <c r="O48" s="0" t="n">
         <f aca="false">J48-221.4</f>
@@ -10175,7 +14935,7 @@
         <v>5.20400000000001</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>1985</v>
       </c>
@@ -10216,7 +14976,7 @@
       </c>
       <c r="N49" s="0" t="n">
         <f aca="false">M49+3*L49</f>
-        <v>29.65837</v>
+        <v>12.2842</v>
       </c>
       <c r="O49" s="0" t="n">
         <f aca="false">J49-221.4</f>
@@ -10338,7 +15098,7 @@
         <v>4.941</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>1986</v>
       </c>
@@ -10379,7 +15139,7 @@
       </c>
       <c r="N50" s="0" t="n">
         <f aca="false">M50+3*L50</f>
-        <v>31.651</v>
+        <v>11.78038</v>
       </c>
       <c r="O50" s="0" t="n">
         <f aca="false">J50-221.4</f>
@@ -10501,7 +15261,7 @@
         <v>4.685</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>1987</v>
       </c>
@@ -10542,7 +15302,7 @@
       </c>
       <c r="N51" s="0" t="n">
         <f aca="false">M51+3*L51</f>
-        <v>28.96559</v>
+        <v>16.58054</v>
       </c>
       <c r="O51" s="0" t="n">
         <f aca="false">J51-221.4</f>
@@ -10664,7 +15424,7 @@
         <v>4.43600000000001</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>1988</v>
       </c>
@@ -10786,6 +15546,10 @@
       <c r="AX52" s="0" t="n">
         <v>226.256</v>
       </c>
+      <c r="AY52" s="1" t="n">
+        <f aca="false">AVERAGE(AY51,AY53)</f>
+        <v>7.05826</v>
+      </c>
       <c r="AZ52" s="0" t="n">
         <v>15.858</v>
       </c>
@@ -10824,7 +15588,7 @@
         <v>4.18700000000001</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>1989</v>
       </c>
@@ -10877,6 +15641,10 @@
       <c r="R53" s="0" t="n">
         <v>226.328</v>
       </c>
+      <c r="S53" s="1" t="n">
+        <f aca="false">AVERAGE(S52,S54)</f>
+        <v>8.261585</v>
+      </c>
       <c r="T53" s="0" t="n">
         <v>12.9706</v>
       </c>
@@ -10984,7 +15752,7 @@
         <v>3.94800000000001</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>1990</v>
       </c>
@@ -11147,12 +15915,16 @@
         <v>3.71899999999999</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>1991</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>226.866</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <f aca="false">C54</f>
+        <v>6.34905</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>9.87165</v>
@@ -11292,12 +16064,16 @@
         <v>3.501</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>1992</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>226.745</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <f aca="false">C55</f>
+        <v>6.34905</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>11.0488</v>
@@ -11418,12 +16194,16 @@
         <v>3.298</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>1993</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>226.658</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <f aca="false">C56</f>
+        <v>6.34905</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>11.9966</v>
@@ -11555,12 +16335,16 @@
         <v>3.12200000000001</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>1994</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>226.58</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <f aca="false">C57</f>
+        <v>6.34905</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>10.3092</v>
@@ -11692,12 +16476,16 @@
         <v>2.98099999999999</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>1995</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>226.513</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <f aca="false">C58</f>
+        <v>6.34905</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>13.4721</v>
@@ -11829,12 +16617,16 @@
         <v>2.88300000000001</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>1996</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>226.461</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <f aca="false">C59</f>
+        <v>6.34905</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>12.0577</v>
@@ -11943,12 +16735,16 @@
         <v>3.054</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>1997</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>226.42</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <f aca="false">C60</f>
+        <v>6.34905</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>12.716</v>
@@ -12034,12 +16830,16 @@
         <v>3.13300000000001</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>1998</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>226.396</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <f aca="false">C61</f>
+        <v>6.34905</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>12.3134</v>
@@ -12102,12 +16902,16 @@
         <v>2.91500000000002</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>226.386</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <f aca="false">C62</f>
+        <v>6.34905</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>12.166</v>
@@ -12164,12 +16968,16 @@
         <v>2.70700000000002</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>2000</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>226.377</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <f aca="false">C63</f>
+        <v>6.34905</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>13.3731</v>
@@ -12219,7 +17027,7 @@
         <v>2.51600000000002</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG65" s="0" t="n">
         <v>1983</v>
       </c>
@@ -12261,7 +17069,7 @@
         <v>2.333</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG66" s="0" t="n">
         <v>1984</v>
       </c>
@@ -12303,7 +17111,7 @@
         <v>2.18700000000001</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG67" s="0" t="n">
         <v>1985</v>
       </c>
@@ -12345,7 +17153,7 @@
         <v>2.08500000000001</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG68" s="0" t="n">
         <v>1986</v>
       </c>
@@ -12367,7 +17175,7 @@
         <v>2.47500000000002</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG69" s="0" t="n">
         <v>1987</v>
       </c>
@@ -12389,7 +17197,7 @@
         <v>2.41800000000001</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG70" s="0" t="n">
         <v>1988</v>
       </c>
@@ -12411,7 +17219,7 @@
         <v>2.39000000000001</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AG71" s="0" t="n">
         <v>1989</v>
       </c>
@@ -12451,8 +17259,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T47" activeCellId="0" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12476,23 +17284,1696 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6194331983806"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6194331983806"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.1417004048583"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="n">
+        <v>167192.1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>167192.2</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>167193.1</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>167193.2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>15.722</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.254558</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2.99746</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>15.683</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.171268</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3.27313</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>15.766</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.331362</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>3.06234</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>15.767</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>15.533</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.463889</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2.98964</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>15.485</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.180247</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>3.06291</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>15.591</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.260901</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>2.83246</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>15.577</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>15.344</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.41334</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3.04286</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>-0.0160383</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2.95967</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>15.407</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.269785</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>3.23863</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>15.384</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>15.155</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.375413</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2.89349</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>15.073</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.191503</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>2.76317</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>15.214</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.249751</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2.86977</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>15.181</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>14.958</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.295443</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2.59157</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>14.863</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.132084</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2.88277</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>15.021</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.4279</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>2.97313</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>14.971</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>14.755</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.267511</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>3.01521</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>14.644</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.235551</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>3.02918</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>14.823</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.2881</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>3.00194</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>14.549</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.216136</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2.88849</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>14.424</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.19859</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2.89746</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>14.615</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.168113</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>2.8849</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>14.543</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>14.343</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.202622</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2.83414</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>14.202</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.25756</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>2.86957</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>14.406</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.189086</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>2.8434</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>14.319</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>14.131</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.201307</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2.67155</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>13.968</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.0948347</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2.69833</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>14.196</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.0525352</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>2.88269</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>14.093</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>13.914</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.255058</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2.50399</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>13.728</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.285766</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2.73376</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>13.979</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.421562</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3.01601</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>13.863</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>13.697</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.218056</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>2.44273</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>13.489</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.349615</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2.83255</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>13.753</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.23154</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2.66156</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>13.622</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13.478</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.214605</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.64859</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>13.248</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.429205</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2.58271</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>13.527</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.261257</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>2.64377</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>13.378</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13.253</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.346052</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3.3631</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>13.004</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.328572</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2.75295</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>13.294</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.192942</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>3.0367</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>13.031</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.25108</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.06863</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>12.756</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.216001</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2.61476</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>13.059</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>-0.104425</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2.16471</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>12.877</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>12.806</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.454222</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.12407</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>12.504</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.282741</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.46655</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>12.825</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>0.0838688</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2.05416</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>12.576</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.311882</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.19151</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>12.252</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.346984</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2.20666</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>12.592</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.00640894</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2.12015</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>12.363</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>12.346</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.303866</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2.14056</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>11.995</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.407981</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2.41208</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>-0.00418748</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2.25748</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>12.104</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>12.116</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.225503</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2.22298</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>11.732</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.606537</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2.35573</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>12.106</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.340159</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2.20934</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>11.838</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>11.883</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.335254</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2.39655</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>11.473</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.68016</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2.53463</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>11.865</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.701315</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2.45289</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>11.567</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>11.651</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.620091</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2.45902</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>11.211</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.770213</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2.87148</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>11.619</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>0.861897</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>2.52836</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>11.296</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>11.419</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1.03937</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.90697</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10.945</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1.25171</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>3.02315</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>11.369</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>1.03361</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>2.54641</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>11.024</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>11.183</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.801702</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.70033</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>10.679</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1.62525</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>3.34728</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>11.123</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.932412</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>2.40493</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>10.746</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>10.948</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1.39348</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2.9105</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1.86216</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>3.34637</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1.33934</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>2.70187</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>10.467</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>10.715</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1.34741</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>2.9686</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>10.144</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2.06836</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>3.70189</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>2.31666</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>3.60868</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>10.187</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>10.482</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1.54362</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3.43781</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>9.87799999999999</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2.47368</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>3.83776</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>2.3653</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>3.43597</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>9.904</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>10.249</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>1.53383</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3.28147</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>9.61099999999999</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2.43354</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>3.74459</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>10.119</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1.60706</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>2.91116</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>9.62199999999999</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>10.018</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1.88002</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3.09848</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9.345</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2.38068</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>4.00161</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>9.86499999999998</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>1.9158</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>3.31208</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>9.34299999999999</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>9.78799999999998</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1.85443</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>3.36698</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>9.08099999999999</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2.34496</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>4.03949</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>9.61399999999998</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>2.53637</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>3.73186</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>9.06</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>1.74745</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>4.17762</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>8.81799999999998</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2.20291</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>3.82624</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>9.369</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2.98601</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>4.4292</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>8.77799999999999</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>9.33399999999998</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>1.85693</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>3.77198</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>8.55500000000001</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2.7875</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>4.55119</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>9.118</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>2.75869</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>4.19967</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>8.49699999999999</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>9.10899999999998</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2.65381</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>3.53047</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>8.29599999999999</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>3.1579</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>5.13022</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>8.86999999999998</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>3.33678</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>4.279</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>8.22099999999998</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>8.886</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2.2395</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>4.64708</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>8.036</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>3.37575</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>5.01092</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>8.62599999999998</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>3.24895</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>4.42208</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>7.941</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>8.667</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2.11315</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>3.75816</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>7.786</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>3.63627</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>5.8098</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>8.38399999999999</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>2.81451</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>4.25654</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>7.66499999999999</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>8.44999999999999</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2.53918</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>5.28178</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>7.53399999999999</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>3.36422</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>5.71215</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>8.13899999999998</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>3.45505</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>5.15786</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>7.39599999999999</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>8.23399999999998</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1.96695</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>4.49646</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>7.28700000000001</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3.20873</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>5.6643</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>7.899</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>4.02812</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>5.69582</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>8.023</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>3.23326</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>4.40622</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>7.047</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>3.60938</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>5.71057</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>7.66299999999998</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>3.52939</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>5.52794</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>6.86499999999998</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>7.81799999999998</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>2.81811</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>4.31276</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>6.81299999999999</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>3.95637</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>6.58119</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>7.43199999999999</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>4.13196</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>5.8527</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>6.607</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>7.61599999999999</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>2.34289</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>5.67364</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>6.57900000000001</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>5.63684</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>8.41194</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>7.20099999999999</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>4.77297</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>6.55709</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>6.35199999999998</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>7.416</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>2.40531</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>6.25983</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>6.352</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>5.89942</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>8.68605</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>6.97499999999999</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>4.80833</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>7.07221</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>6.10299999999998</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>7.22299999999999</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>3.49141</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>6.7879</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>6.4678</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>9.1393</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>6.756</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>5.36426</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>9.83464</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>5.85899999999998</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>7.03699999999998</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>3.71485</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>6.4755</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>5.916</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>6.41037</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>8.94506</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>6.53999999999999</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>4.02556</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>5.619</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>6.85999999999999</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>4.12493</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>7.22136</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>5.71000000000001</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>6.48487</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>10.4862</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>6.32799999999997</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>5.07214</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>8.5573</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <v>5.387</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>6.68199999999999</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>4.28776</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>7.19659</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>5.511</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>6.34544</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>9.58696</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>6.12099999999998</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>6.97834</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>10.2003</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>5.166</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>6.51299999999998</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>4.46526</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>5.31999999999999</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>6.60611</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>10.9566</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>5.91999999999999</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>6.30228</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>8.80975</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>4.95299999999997</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>6.35199999999998</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>4.67226</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>7.37497</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>5.14499999999998</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>7.70416</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>12.3975</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>5.726</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>7.79107</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>11.2833</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>6.202</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>5.4194</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>4.994</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>8.44935</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>14.3277</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>5.53899999999999</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>7.95121</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>11.9741</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>6.054</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>3.89449</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>8.49291</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>5.35799999999998</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>8.95246</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>12.9863</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>5.916</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>4.79023</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>9.47171</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>5.18899999999999</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>7.91965</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>12.3566</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>5.78799999999998</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>4.88928</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>8.65942</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>5.02799999999999</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>12.9706</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>5.672</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>6.22481</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>9.07606</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>5.566</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>6.0203</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>9.87165</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>5.44499999999999</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>6.34905</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>11.0488</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>5.35799999999998</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>11.9966</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>10.3092</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>5.21299999999999</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>13.4721</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>5.161</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>12.0577</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>5.11999999999998</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>12.716</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>5.09599999999998</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>12.3134</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>5.08599999999998</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>12.166</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>5.077</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>13.3731</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>